--- a/supplementary_material/STable2.xlsx
+++ b/supplementary_material/STable2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/git/socialbrain_sexdiff/supplementary_material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2213009-4713-6149-9662-2840959F0E91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB879AA-657E-394F-B77F-4BB798C5364C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10960" yWindow="3560" windowWidth="22320" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11140" yWindow="8680" windowWidth="22320" windowHeight="12160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,15 +42,6 @@
     <t>Links to full posterior parameter distributions</t>
   </si>
   <si>
-    <t>http://github.com/banilo/posterior_dists/socialjob.png</t>
-  </si>
-  <si>
-    <t>http://github.com/banilo/posterior_dists/familysatisfaction.png</t>
-  </si>
-  <si>
-    <t>http://github.com/banilo/posterior_dists/friendshipsatisfaction.png</t>
-  </si>
-  <si>
     <t>Friendships Satisfaction</t>
   </si>
   <si>
@@ -87,34 +78,43 @@
     <t>Health Care</t>
   </si>
   <si>
-    <t>http://github.com/banilo/posterior_dists/householdsize.png</t>
-  </si>
-  <si>
-    <t>http://github.com/banilo/posterior_dists/livingalone.png</t>
-  </si>
-  <si>
-    <t>http://github.com/banilo/posterior_dists/siblings.png</t>
-  </si>
-  <si>
-    <t>http://github.com/banilo/posterior_dists/romanticpartners.png</t>
-  </si>
-  <si>
-    <t>http://github.com/banilo/posterior_dists/socialsupport.png</t>
-  </si>
-  <si>
-    <t>http://github.com/banilo/posterior_dists/sportsclub.png</t>
-  </si>
-  <si>
-    <t>http://github.com/banilo/posterior_dists/weeklysocialact.png</t>
-  </si>
-  <si>
-    <t>http://github.com/banilo/posterior_dists/loneliness.png</t>
-  </si>
-  <si>
-    <t>http://github.com/banilo/posterior_dists/income.png</t>
-  </si>
-  <si>
-    <t>http://github.com/banilo/posterior_dists/healthcare.png</t>
+    <t>https://github.com/banilo/socialbrain_sexdiff/blob/master/posterior_dists/socialjob.png</t>
+  </si>
+  <si>
+    <t>https://github.com/banilo/socialbrain_sexdiff/blob/master/posterior_dists/friendshipsatisfaction.png</t>
+  </si>
+  <si>
+    <t>https://github.com/banilo/socialbrain_sexdiff/blob/master/posterior_dists/familysatisfaction.png</t>
+  </si>
+  <si>
+    <t>https://github.com/banilo/socialbrain_sexdiff/blob/master/posterior_dists/householdsize.png</t>
+  </si>
+  <si>
+    <t>https://github.com/banilo/socialbrain_sexdiff/blob/master/posterior_dists/livingalone.png</t>
+  </si>
+  <si>
+    <t>https://github.com/banilo/socialbrain_sexdiff/blob/master/posterior_dists/siblings.png</t>
+  </si>
+  <si>
+    <t>https://github.com/banilo/socialbrain_sexdiff/blob/master/posterior_dists/romanticpartners.png</t>
+  </si>
+  <si>
+    <t>https://github.com/banilo/socialbrain_sexdiff/blob/master/posterior_dists/socialsupport.png</t>
+  </si>
+  <si>
+    <t>https://github.com/banilo/socialbrain_sexdiff/blob/master/posterior_dists/sportsclub.png</t>
+  </si>
+  <si>
+    <t>https://github.com/banilo/socialbrain_sexdiff/blob/master/posterior_dists/weeklysocialact.png</t>
+  </si>
+  <si>
+    <t>https://github.com/banilo/socialbrain_sexdiff/blob/master/posterior_dists/loneliness.png</t>
+  </si>
+  <si>
+    <t>https://github.com/banilo/socialbrain_sexdiff/blob/master/posterior_dists/income.png</t>
+  </si>
+  <si>
+    <t>https://github.com/banilo/socialbrain_sexdiff/blob/master/posterior_dists/healthcare.png</t>
   </si>
 </sst>
 </file>
@@ -538,13 +538,13 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
-    <col min="2" max="2" width="64.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="98.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -560,28 +560,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="6" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>19</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="7" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>20</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="8" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="9" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>22</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="10" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>23</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="11" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>24</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="12" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>25</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="13" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>26</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="14" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>27</v>
